--- a/RepartitionTaches.xlsx
+++ b/RepartitionTaches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolas/Library/Mobile Documents/com~apple~CloudDocs/COURS_IG2I/COURS/LA2/POO/LeBonCoin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F3DBC42-124B-9947-8C35-24A199377C30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411B06A9-C614-874A-A4CE-117181344AFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{6B3C3676-455E-D242-9DDA-FB9D3C348B94}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20580" xr2:uid="{6B3C3676-455E-D242-9DDA-FB9D3C348B94}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Partie Données :</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Design</t>
+  </si>
+  <si>
+    <t>Remplissage Data BDD</t>
   </si>
 </sst>
 </file>
@@ -437,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CC66AC-FB10-BB4F-BAAE-07C01D695B45}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -512,29 +515,34 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>1</v>
+      <c r="B11" t="s">
+        <v>18</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>15</v>
+      <c r="A13" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>17</v>
       </c>
     </row>

--- a/RepartitionTaches.xlsx
+++ b/RepartitionTaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolas/Library/Mobile Documents/com~apple~CloudDocs/COURS_IG2I/COURS/LA2/POO/LeBonCoin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411B06A9-C614-874A-A4CE-117181344AFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F839B6-60B8-564B-B518-68575228BCEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20580" xr2:uid="{6B3C3676-455E-D242-9DDA-FB9D3C348B94}"/>
   </bookViews>
@@ -97,7 +97,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +107,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -123,9 +129,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,7 +450,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,16 +485,19 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>13</v>
       </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
@@ -518,13 +528,14 @@
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">

--- a/RepartitionTaches.xlsx
+++ b/RepartitionTaches.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolas/Library/Mobile Documents/com~apple~CloudDocs/COURS_IG2I/COURS/LA2/POO/LeBonCoin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F839B6-60B8-564B-B518-68575228BCEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A207DD08-D817-114D-86F0-110098CE26B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20580" xr2:uid="{6B3C3676-455E-D242-9DDA-FB9D3C348B94}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,44 +485,53 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>13</v>
       </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>9</v>
       </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>14</v>
       </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>11</v>
       </c>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>12</v>
       </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
@@ -541,6 +550,7 @@
       <c r="B14" t="s">
         <v>8</v>
       </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
